--- a/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/ROI_greedy/dataset_03/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/ROI_greedy/dataset_03/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=2(for_10_workers_and_less)\ROI_greedy\dataset_03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC11B1-CE0E-46ED-A125-F38C2EDD4E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_03_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>53.07833955705257</v>
+        <v>53.078339557052573</v>
       </c>
       <c r="H2">
         <v>10.02835333913611</v>
       </c>
       <c r="I2">
-        <v>43.04998621791646</v>
+        <v>43.049986217916462</v>
       </c>
       <c r="J2">
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>46.51460953694115</v>
+        <v>46.514609536941151</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -663,10 +752,10 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9255153734812468</v>
+        <v>0.92551537348124679</v>
       </c>
       <c r="O2">
-        <v>59.04443178439119</v>
+        <v>59.044431784391193</v>
       </c>
       <c r="P2">
         <v>12.52982224745003</v>
@@ -678,31 +767,31 @@
         <v>27.09114648883693</v>
       </c>
       <c r="S2">
-        <v>4.712312003979738</v>
+        <v>4.7123120039797382</v>
       </c>
       <c r="T2">
-        <v>5.292827023745954</v>
+        <v>5.2928270237459536</v>
       </c>
       <c r="U2">
-        <v>1.666352512150259</v>
+        <v>1.6663525121502589</v>
       </c>
       <c r="V2">
         <v>26.33921443851656</v>
       </c>
       <c r="W2">
-        <v>66.12443448255129</v>
+        <v>66.124434482551294</v>
       </c>
       <c r="X2">
-        <v>109.1744207004677</v>
+        <v>109.17442070046771</v>
       </c>
       <c r="Y2">
-        <v>62.6598111635266</v>
+        <v>62.659811163526598</v>
       </c>
       <c r="Z2">
-        <v>1.055292591131226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>1.0552925911312261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>46.06222038812719</v>
+        <v>46.062220388127187</v>
       </c>
       <c r="H3">
         <v>10.01889007787403</v>
       </c>
       <c r="I3">
-        <v>36.04333031025315</v>
+        <v>36.043330310253147</v>
       </c>
       <c r="J3">
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>38.0685358663606</v>
+        <v>38.068535866360598</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -743,7 +832,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9468010652362119</v>
+        <v>0.94680106523621188</v>
       </c>
       <c r="O3">
         <v>49.24498449417321</v>
@@ -752,37 +841,37 @@
         <v>11.17644862781261</v>
       </c>
       <c r="Q3">
-        <v>1.482998761528112</v>
+        <v>1.4829987615281119</v>
       </c>
       <c r="R3">
         <v>21.49387639303194</v>
       </c>
       <c r="S3">
-        <v>4.406138849117688</v>
+        <v>4.4061388491176876</v>
       </c>
       <c r="T3">
-        <v>4.597537255134892</v>
+        <v>4.5975372551348919</v>
       </c>
       <c r="U3">
-        <v>1.525520780809868</v>
+        <v>1.5255207808098681</v>
       </c>
       <c r="V3">
         <v>20.75930529580652</v>
       </c>
       <c r="W3">
-        <v>65.36617439524424</v>
+        <v>65.366174395244244</v>
       </c>
       <c r="X3">
         <v>101.4095047054974</v>
       </c>
       <c r="Y3">
-        <v>63.3409688391368</v>
+        <v>63.340968839136799</v>
       </c>
       <c r="Z3">
         <v>1.031973075139579</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>52.40396572535193</v>
+        <v>52.403965725351931</v>
       </c>
       <c r="H4">
-        <v>8.566816901276718</v>
+        <v>8.5668169012767184</v>
       </c>
       <c r="I4">
-        <v>43.83714882407521</v>
+        <v>43.837148824075207</v>
       </c>
       <c r="J4">
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>43.83714882407521</v>
+        <v>43.837148824075207</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -826,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>52.40396572535193</v>
+        <v>52.403965725351931</v>
       </c>
       <c r="P4">
-        <v>8.566816901276718</v>
+        <v>8.5668169012767184</v>
       </c>
       <c r="Q4">
         <v>1.811086030051495</v>
       </c>
       <c r="R4">
-        <v>28.32190641216391</v>
+        <v>28.321906412163909</v>
       </c>
       <c r="S4">
         <v>6.117087166593012</v>
@@ -847,13 +936,13 @@
         <v>1.811086030051495</v>
       </c>
       <c r="V4">
-        <v>28.32190641216391</v>
+        <v>28.321906412163909</v>
       </c>
       <c r="W4">
         <v>45.79801049754218</v>
       </c>
       <c r="X4">
-        <v>89.63515932161739</v>
+        <v>89.635159321617394</v>
       </c>
       <c r="Y4">
         <v>45.79801049754218</v>
@@ -862,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>35.51944500351899</v>
+        <v>35.519445003518989</v>
       </c>
       <c r="H5">
         <v>10.02217104146334</v>
       </c>
       <c r="I5">
-        <v>25.49727396205565</v>
+        <v>25.497273962055651</v>
       </c>
       <c r="J5">
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>27.10695674182274</v>
+        <v>27.106956741822739</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -903,10 +992,10 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9406173553490961</v>
+        <v>0.94061735534909607</v>
       </c>
       <c r="O5">
-        <v>39.27411281023281</v>
+        <v>39.274112810232808</v>
       </c>
       <c r="P5">
         <v>12.16715606841008</v>
@@ -915,34 +1004,34 @@
         <v>1.171825398801438</v>
       </c>
       <c r="R5">
-        <v>12.84917422967876</v>
+        <v>12.849174229678759</v>
       </c>
       <c r="S5">
-        <v>3.227879431266709</v>
+        <v>3.2278794312667092</v>
       </c>
       <c r="T5">
         <v>3.544086890611756</v>
       </c>
       <c r="U5">
-        <v>1.265280550109256</v>
+        <v>1.2652805501092561</v>
       </c>
       <c r="V5">
-        <v>12.81641587342387</v>
+        <v>12.816415873423869</v>
       </c>
       <c r="W5">
-        <v>56.59117662256688</v>
+        <v>56.591176622566877</v>
       </c>
       <c r="X5">
-        <v>82.08845058462254</v>
+        <v>82.088450584622535</v>
       </c>
       <c r="Y5">
         <v>54.9814938427998</v>
       </c>
       <c r="Z5">
-        <v>1.029276810564104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>1.0292768105641039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>61.24385614438879</v>
+        <v>61.243856144388793</v>
       </c>
       <c r="H6">
-        <v>7.459736528080886</v>
+        <v>7.4597365280808861</v>
       </c>
       <c r="I6">
-        <v>53.7841196163079</v>
+        <v>53.784119616307898</v>
       </c>
       <c r="J6">
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>65.11224879633981</v>
+        <v>65.112248796339813</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -986,43 +1075,43 @@
         <v>0.8260215337445278</v>
       </c>
       <c r="O6">
-        <v>78.34336199210142</v>
+        <v>78.343361992101421</v>
       </c>
       <c r="P6">
-        <v>13.2311131957616</v>
+        <v>13.231113195761599</v>
       </c>
       <c r="Q6">
-        <v>1.77853012634451</v>
+        <v>1.7785301263445099</v>
       </c>
       <c r="R6">
-        <v>41.58031537260344</v>
+        <v>41.580315372603437</v>
       </c>
       <c r="S6">
-        <v>5.921146681535277</v>
+        <v>5.9211466815352773</v>
       </c>
       <c r="T6">
-        <v>8.209922148570113</v>
+        <v>8.2099221485701133</v>
       </c>
       <c r="U6">
-        <v>2.105343440906602</v>
+        <v>2.1053434409066019</v>
       </c>
       <c r="V6">
-        <v>38.07881224602141</v>
+        <v>38.078812246021407</v>
       </c>
       <c r="W6">
-        <v>68.26404706113803</v>
+        <v>68.264047061138029</v>
       </c>
       <c r="X6">
-        <v>122.0481666774459</v>
+        <v>122.04816667744591</v>
       </c>
       <c r="Y6">
-        <v>56.93591788110612</v>
+        <v>56.935917881106121</v>
       </c>
       <c r="Z6">
         <v>1.198962791882751</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>50.64121229896568</v>
+        <v>50.641212298965677</v>
       </c>
       <c r="H7">
-        <v>4.978687771329574</v>
+        <v>4.9786877713295743</v>
       </c>
       <c r="I7">
-        <v>45.6625245276361</v>
+        <v>45.662524527636101</v>
       </c>
       <c r="J7">
         <v>0.2</v>
       </c>
       <c r="K7">
-        <v>50.14848964831735</v>
+        <v>50.148489648317351</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1063,46 +1152,46 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9105463563879881</v>
+        <v>0.91054635638798809</v>
       </c>
       <c r="O7">
-        <v>60.88944619693663</v>
+        <v>60.889446196936632</v>
       </c>
       <c r="P7">
         <v>10.74095654861928</v>
       </c>
       <c r="Q7">
-        <v>1.734995713207309</v>
+        <v>1.7349957132073091</v>
       </c>
       <c r="R7">
-        <v>31.51297608071693</v>
+        <v>31.512976080716928</v>
       </c>
       <c r="S7">
-        <v>5.668903502338795</v>
+        <v>5.6689035023387948</v>
       </c>
       <c r="T7">
-        <v>10.17159834577089</v>
+        <v>10.171598345770891</v>
       </c>
       <c r="U7">
         <v>2.319599360521019</v>
       </c>
       <c r="V7">
-        <v>34.1139635570262</v>
+        <v>34.113963557026203</v>
       </c>
       <c r="W7">
-        <v>48.56602581334766</v>
+        <v>48.566025813347657</v>
       </c>
       <c r="X7">
-        <v>94.22855034098376</v>
+        <v>94.228550340983759</v>
       </c>
       <c r="Y7">
-        <v>44.08006069266641</v>
+        <v>44.080060692666407</v>
       </c>
       <c r="Z7">
         <v>1.10176857858609</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>59.35397900563479</v>
+        <v>59.353979005634791</v>
       </c>
       <c r="H8">
-        <v>9.01164068839207</v>
+        <v>9.0116406883920703</v>
       </c>
       <c r="I8">
-        <v>50.34233831724272</v>
+        <v>50.342338317242721</v>
       </c>
       <c r="J8">
         <v>0.2</v>
       </c>
       <c r="K8">
-        <v>50.34233831724271</v>
+        <v>50.342338317242707</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1146,43 +1235,43 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>59.35397900563479</v>
+        <v>59.353979005634791</v>
       </c>
       <c r="P8">
-        <v>9.01164068839207</v>
+        <v>9.0116406883920703</v>
       </c>
       <c r="Q8">
         <v>1.885002010445161</v>
       </c>
       <c r="R8">
-        <v>33.35537750221425</v>
+        <v>33.355377502214253</v>
       </c>
       <c r="S8">
-        <v>6.586367683532798</v>
+        <v>6.5863676835327976</v>
       </c>
       <c r="T8">
-        <v>6.586367683532798</v>
+        <v>6.5863676835327976</v>
       </c>
       <c r="U8">
         <v>1.885002010445161</v>
       </c>
       <c r="V8">
-        <v>33.35537750221425</v>
+        <v>33.355377502214253</v>
       </c>
       <c r="W8">
-        <v>45.3295706150566</v>
+        <v>45.329570615056603</v>
       </c>
       <c r="X8">
-        <v>95.67190893229932</v>
+        <v>95.671908932299317</v>
       </c>
       <c r="Y8">
-        <v>45.3295706150566</v>
+        <v>45.329570615056603</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>68.81850818109768</v>
+        <v>68.818508181097684</v>
       </c>
       <c r="H9">
         <v>8.532973619146432</v>
       </c>
       <c r="I9">
-        <v>60.28553456195125</v>
+        <v>60.285534561951252</v>
       </c>
       <c r="J9">
         <v>0.2</v>
       </c>
       <c r="K9">
-        <v>60.28553456195124</v>
+        <v>60.285534561951238</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1226,43 +1315,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>68.81850818109768</v>
+        <v>68.818508181097684</v>
       </c>
       <c r="P9">
         <v>8.532973619146432</v>
       </c>
       <c r="Q9">
-        <v>2.087534815098966</v>
+        <v>2.0875348150989659</v>
       </c>
       <c r="R9">
-        <v>42.47265505566205</v>
+        <v>42.472655055662052</v>
       </c>
       <c r="S9">
-        <v>8.065008899908179</v>
+        <v>8.0650088999081788</v>
       </c>
       <c r="T9">
-        <v>8.065008899908179</v>
+        <v>8.0650088999081788</v>
       </c>
       <c r="U9">
-        <v>2.087534815098966</v>
+        <v>2.0875348150989659</v>
       </c>
       <c r="V9">
-        <v>42.47265505566205</v>
+        <v>42.472655055662052</v>
       </c>
       <c r="W9">
-        <v>45.40181114934482</v>
+        <v>45.401811149344823</v>
       </c>
       <c r="X9">
         <v>105.6873457112961</v>
       </c>
       <c r="Y9">
-        <v>45.40181114934484</v>
+        <v>45.401811149344837</v>
       </c>
       <c r="Z9">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,19 +1371,19 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>53.02208878789683</v>
+        <v>53.022088787896827</v>
       </c>
       <c r="H10">
         <v>8.794025905138513</v>
       </c>
       <c r="I10">
-        <v>44.22806288275832</v>
+        <v>44.228062882758323</v>
       </c>
       <c r="J10">
         <v>0.2</v>
       </c>
       <c r="K10">
-        <v>44.22806288275832</v>
+        <v>44.228062882758323</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1306,43 +1395,43 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>53.02208878789683</v>
+        <v>53.022088787896827</v>
       </c>
       <c r="P10">
         <v>8.794025905138513</v>
       </c>
       <c r="Q10">
-        <v>1.796635979782259</v>
+        <v>1.7966359797822591</v>
       </c>
       <c r="R10">
         <v>28.42839953444922</v>
       </c>
       <c r="S10">
-        <v>6.029330520497449</v>
+        <v>6.0293305204974494</v>
       </c>
       <c r="T10">
-        <v>6.029330520497449</v>
+        <v>6.0293305204974494</v>
       </c>
       <c r="U10">
-        <v>1.796635979782259</v>
+        <v>1.7966359797822591</v>
       </c>
       <c r="V10">
         <v>28.42839953444922</v>
       </c>
       <c r="W10">
-        <v>63.22323563173909</v>
+        <v>63.223235631739087</v>
       </c>
       <c r="X10">
         <v>107.4512985144974</v>
       </c>
       <c r="Y10">
-        <v>63.22323563173909</v>
+        <v>63.223235631739087</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>52.34061534208418</v>
+        <v>52.340615342084178</v>
       </c>
       <c r="H11">
-        <v>6.659105897868494</v>
+        <v>6.6591058978684936</v>
       </c>
       <c r="I11">
-        <v>45.68150944421568</v>
+        <v>45.681509444215678</v>
       </c>
       <c r="J11">
         <v>0.2</v>
       </c>
       <c r="K11">
-        <v>46.54375862961808</v>
+        <v>46.543758629618083</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1386,43 +1475,43 @@
         <v>0.981474440165782</v>
       </c>
       <c r="O11">
-        <v>66.32119316775649</v>
+        <v>66.321193167756491</v>
       </c>
       <c r="P11">
-        <v>19.77743453813842</v>
+        <v>19.777434538138419</v>
       </c>
       <c r="Q11">
-        <v>1.20996788374307</v>
+        <v>1.2099678837430701</v>
       </c>
       <c r="R11">
-        <v>22.61369801563963</v>
+        <v>22.613698015639631</v>
       </c>
       <c r="S11">
-        <v>3.353376952903776</v>
+        <v>3.3533769529037758</v>
       </c>
       <c r="T11">
         <v>7.860006455046439</v>
       </c>
       <c r="U11">
-        <v>2.061787427693506</v>
+        <v>2.0617874276935062</v>
       </c>
       <c r="V11">
-        <v>31.95184862431075</v>
+        <v>31.951848624310749</v>
       </c>
       <c r="W11">
-        <v>66.94585210355285</v>
+        <v>66.945852103552852</v>
       </c>
       <c r="X11">
         <v>112.6273615477685</v>
       </c>
       <c r="Y11">
-        <v>66.08360291815046</v>
+        <v>66.083602918150461</v>
       </c>
       <c r="Z11">
         <v>1.0130478537387</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>50.43754355787435</v>
+        <v>50.437543557874349</v>
       </c>
       <c r="H12">
-        <v>7.321797188341293</v>
+        <v>7.3217971883412929</v>
       </c>
       <c r="I12">
-        <v>43.11574636953306</v>
+        <v>43.115746369533063</v>
       </c>
       <c r="J12">
         <v>0.2</v>
       </c>
       <c r="K12">
-        <v>43.11574636953306</v>
+        <v>43.115746369533063</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1466,43 +1555,43 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>50.43754355787435</v>
+        <v>50.437543557874349</v>
       </c>
       <c r="P12">
-        <v>7.321797188341293</v>
+        <v>7.3217971883412929</v>
       </c>
       <c r="Q12">
         <v>1.929879994259087</v>
       </c>
       <c r="R12">
-        <v>28.98555645373077</v>
+        <v>28.985556453730769</v>
       </c>
       <c r="S12">
-        <v>6.888683510407457</v>
+        <v>6.8886835104074571</v>
       </c>
       <c r="T12">
-        <v>6.888683510407457</v>
+        <v>6.8886835104074571</v>
       </c>
       <c r="U12">
         <v>1.929879994259087</v>
       </c>
       <c r="V12">
-        <v>28.98555645373077</v>
+        <v>28.985556453730769</v>
       </c>
       <c r="W12">
-        <v>53.81334988517445</v>
+        <v>53.813349885174453</v>
       </c>
       <c r="X12">
-        <v>96.9290962547075</v>
+        <v>96.929096254707503</v>
       </c>
       <c r="Y12">
-        <v>53.81334988517445</v>
+        <v>53.813349885174453</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>47.34960679427702</v>
+        <v>47.349606794277022</v>
       </c>
       <c r="H13">
-        <v>9.089843453991834</v>
+        <v>9.0898434539918345</v>
       </c>
       <c r="I13">
-        <v>38.25976334028518</v>
+        <v>38.259763340285183</v>
       </c>
       <c r="J13">
         <v>0.2</v>
       </c>
       <c r="K13">
-        <v>40.70753518269741</v>
+        <v>40.707535182697413</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1543,25 +1632,25 @@
         <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.939869318261926</v>
+        <v>0.93986931826192599</v>
       </c>
       <c r="O13">
-        <v>51.60990574305505</v>
+        <v>51.609905743055052</v>
       </c>
       <c r="P13">
         <v>10.90237056035765</v>
       </c>
       <c r="Q13">
-        <v>1.554733377637124</v>
+        <v>1.5547333776371239</v>
       </c>
       <c r="R13">
-        <v>23.757255777141</v>
+        <v>23.757255777141001</v>
       </c>
       <c r="S13">
-        <v>4.733824213489402</v>
+        <v>4.7338242134894024</v>
       </c>
       <c r="T13">
-        <v>5.209067354562997</v>
+        <v>5.2090673545629969</v>
       </c>
       <c r="U13">
         <v>1.650400829100459</v>
@@ -1570,19 +1659,19 @@
         <v>23.25787816742368</v>
       </c>
       <c r="W13">
-        <v>57.40512741346621</v>
+        <v>57.405127413466211</v>
       </c>
       <c r="X13">
-        <v>95.66489075375139</v>
+        <v>95.664890753751394</v>
       </c>
       <c r="Y13">
-        <v>54.95735557105398</v>
+        <v>54.957355571053981</v>
       </c>
       <c r="Z13">
         <v>1.044539476417266</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>61.19194479580134</v>
+        <v>61.191944795801341</v>
       </c>
       <c r="H14">
-        <v>9.078588578064107</v>
+        <v>9.0785885780641067</v>
       </c>
       <c r="I14">
-        <v>52.11335621773723</v>
+        <v>52.113356217737227</v>
       </c>
       <c r="J14">
         <v>0.2</v>
       </c>
       <c r="K14">
-        <v>57.23277136943001</v>
+        <v>57.232771369430012</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1623,46 +1712,46 @@
         <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.9105509827813923</v>
+        <v>0.91055098278139235</v>
       </c>
       <c r="O14">
-        <v>80.17527248961152</v>
+        <v>80.175272489611515</v>
       </c>
       <c r="P14">
         <v>22.94250112018149</v>
       </c>
       <c r="Q14">
-        <v>1.251224009722326</v>
+        <v>1.2512240097223259</v>
       </c>
       <c r="R14">
-        <v>28.5265631247776</v>
+        <v>28.526563124777599</v>
       </c>
       <c r="S14">
-        <v>3.494617786858684</v>
+        <v>3.4946177868586838</v>
       </c>
       <c r="T14">
-        <v>6.740248692803936</v>
+        <v>6.7402486928039362</v>
       </c>
       <c r="U14">
-        <v>1.908096822285627</v>
+        <v>1.9080968222856269</v>
       </c>
       <c r="V14">
-        <v>34.79053020109453</v>
+        <v>34.790530201094533</v>
       </c>
       <c r="W14">
-        <v>54.30964503638727</v>
+        <v>54.309645036387273</v>
       </c>
       <c r="X14">
         <v>106.4230012541245</v>
       </c>
       <c r="Y14">
-        <v>49.19022988469449</v>
+        <v>49.190229884694489</v>
       </c>
       <c r="Z14">
         <v>1.104073820425175</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1771,19 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>61.59060615409643</v>
+        <v>61.590606154096427</v>
       </c>
       <c r="H15">
-        <v>11.44947900424049</v>
+        <v>11.449479004240491</v>
       </c>
       <c r="I15">
-        <v>50.14112714985595</v>
+        <v>50.141127149855947</v>
       </c>
       <c r="J15">
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>64.87217547879935</v>
+        <v>64.872175478799349</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1703,25 +1792,25 @@
         <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.7729219311635755</v>
+        <v>0.77292193116357555</v>
       </c>
       <c r="O15">
-        <v>89.21712433850183</v>
+        <v>89.217124338501833</v>
       </c>
       <c r="P15">
-        <v>24.34494885970249</v>
+        <v>24.344948859702491</v>
       </c>
       <c r="Q15">
         <v>1.298748609066237</v>
       </c>
       <c r="R15">
-        <v>33.25420700947206</v>
+        <v>33.254207009472061</v>
       </c>
       <c r="S15">
         <v>3.664707814859304</v>
       </c>
       <c r="T15">
-        <v>5.379337010119451</v>
+        <v>5.3793370101194506</v>
       </c>
       <c r="U15">
         <v>1.682565134260162</v>
@@ -1730,19 +1819,19 @@
         <v>30.87663297187715</v>
       </c>
       <c r="W15">
-        <v>72.33973048402888</v>
+        <v>72.339730484028877</v>
       </c>
       <c r="X15">
         <v>122.4808576338848</v>
       </c>
       <c r="Y15">
-        <v>57.60868215508548</v>
+        <v>57.608682155085482</v>
       </c>
       <c r="Z15">
         <v>1.255708823355596</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,13 +1851,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>44.85044130283145</v>
+        <v>44.850441302831449</v>
       </c>
       <c r="H16">
         <v>11.88749017676796</v>
       </c>
       <c r="I16">
-        <v>32.96295112606349</v>
+        <v>32.962951126063487</v>
       </c>
       <c r="J16">
         <v>0.2</v>
@@ -1786,43 +1875,43 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>44.85044130283145</v>
+        <v>44.850441302831449</v>
       </c>
       <c r="P16">
         <v>11.88749017676796</v>
       </c>
       <c r="Q16">
-        <v>1.327846826462943</v>
+        <v>1.3278468264629431</v>
       </c>
       <c r="R16">
-        <v>17.17818502023274</v>
+        <v>17.178185020232739</v>
       </c>
       <c r="S16">
-        <v>3.772910903470932</v>
+        <v>3.7729109034709318</v>
       </c>
       <c r="T16">
-        <v>3.772910903470932</v>
+        <v>3.7729109034709318</v>
       </c>
       <c r="U16">
-        <v>1.327846826462943</v>
+        <v>1.3278468264629431</v>
       </c>
       <c r="V16">
-        <v>17.17818502023274</v>
+        <v>17.178185020232739</v>
       </c>
       <c r="W16">
         <v>56.08163762494371</v>
       </c>
       <c r="X16">
-        <v>89.0445887510072</v>
+        <v>89.044588751007197</v>
       </c>
       <c r="Y16">
-        <v>56.08163762494372</v>
+        <v>56.081637624943717</v>
       </c>
       <c r="Z16">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1931,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>71.24679612806626</v>
+        <v>71.246796128066265</v>
       </c>
       <c r="H17">
-        <v>7.357441596250668</v>
+        <v>7.3574415962506681</v>
       </c>
       <c r="I17">
-        <v>63.8893545318156</v>
+        <v>63.889354531815599</v>
       </c>
       <c r="J17">
         <v>0.2</v>
       </c>
       <c r="K17">
-        <v>63.88935453181561</v>
+        <v>63.889354531815613</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1863,46 +1952,46 @@
         <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O17">
-        <v>71.24679612806626</v>
+        <v>71.246796128066265</v>
       </c>
       <c r="P17">
-        <v>7.357441596250668</v>
+        <v>7.3574415962506681</v>
       </c>
       <c r="Q17">
-        <v>2.270437588408471</v>
+        <v>2.2704375884084711</v>
       </c>
       <c r="R17">
-        <v>47.18474257716806</v>
+        <v>47.184742577168059</v>
       </c>
       <c r="S17">
-        <v>9.683637334528544</v>
+        <v>9.6836373345285445</v>
       </c>
       <c r="T17">
-        <v>9.683637334528544</v>
+        <v>9.6836373345285445</v>
       </c>
       <c r="U17">
-        <v>2.270437588408471</v>
+        <v>2.2704375884084711</v>
       </c>
       <c r="V17">
-        <v>47.18474257716806</v>
+        <v>47.184742577168059</v>
       </c>
       <c r="W17">
         <v>42.99267984517995</v>
       </c>
       <c r="X17">
-        <v>106.8820343769955</v>
+        <v>106.88203437699551</v>
       </c>
       <c r="Y17">
-        <v>42.99267984517994</v>
+        <v>42.992679845179943</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>41.48671332634325</v>
+        <v>41.486713326343249</v>
       </c>
       <c r="H18">
-        <v>12.34691272531973</v>
+        <v>12.346912725319729</v>
       </c>
       <c r="I18">
         <v>29.13980060102352</v>
@@ -1934,7 +2023,7 @@
         <v>0.2</v>
       </c>
       <c r="K18">
-        <v>29.13980060102353</v>
+        <v>29.139800601023531</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1943,16 +2032,16 @@
         <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O18">
-        <v>41.48671332634325</v>
+        <v>41.486713326343249</v>
       </c>
       <c r="P18">
-        <v>12.34691272531973</v>
+        <v>12.346912725319729</v>
       </c>
       <c r="Q18">
-        <v>1.211967165095381</v>
+        <v>1.2119671650953809</v>
       </c>
       <c r="R18">
         <v>14.17574778763769</v>
@@ -1964,25 +2053,25 @@
         <v>3.360088003316549</v>
       </c>
       <c r="U18">
-        <v>1.211967165095381</v>
+        <v>1.2119671650953809</v>
       </c>
       <c r="V18">
         <v>14.17574778763769</v>
       </c>
       <c r="W18">
-        <v>42.56342063002002</v>
+        <v>42.563420630020019</v>
       </c>
       <c r="X18">
-        <v>71.70322123104354</v>
+        <v>71.703221231043543</v>
       </c>
       <c r="Y18">
-        <v>42.56342063002001</v>
+        <v>42.563420630020012</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>50.37352917948104</v>
+        <v>50.373529179481039</v>
       </c>
       <c r="H19">
-        <v>9.281054715195712</v>
+        <v>9.2810547151957117</v>
       </c>
       <c r="I19">
-        <v>41.09247446428533</v>
+        <v>41.092474464285331</v>
       </c>
       <c r="J19">
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>49.67393873695073</v>
+        <v>49.673938736950731</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2023,16 +2112,16 @@
         <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.8272441346334805</v>
+        <v>0.82724413463348045</v>
       </c>
       <c r="O19">
-        <v>61.6520790992462</v>
+        <v>61.652079099246201</v>
       </c>
       <c r="P19">
         <v>11.97814036229547</v>
       </c>
       <c r="Q19">
-        <v>1.638423601164081</v>
+        <v>1.6384236011640809</v>
       </c>
       <c r="R19">
         <v>30.04867086930976</v>
@@ -2041,28 +2130,28 @@
         <v>5.147049311036068</v>
       </c>
       <c r="T19">
-        <v>5.427565155607295</v>
+        <v>5.4275651556072946</v>
       </c>
       <c r="U19">
-        <v>1.691490627416318</v>
+        <v>1.6914906274163179</v>
       </c>
       <c r="V19">
         <v>25.39365740099376</v>
       </c>
       <c r="W19">
-        <v>41.18301801063633</v>
+        <v>41.183018010636331</v>
       </c>
       <c r="X19">
-        <v>82.27549247492166</v>
+        <v>82.275492474921663</v>
       </c>
       <c r="Y19">
-        <v>32.60155373797093</v>
+        <v>32.601553737970931</v>
       </c>
       <c r="Z19">
-        <v>1.263222555024137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>1.2632225550241369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>36.30824667770607</v>
+        <v>36.308246677706073</v>
       </c>
       <c r="H20">
-        <v>4.888749324002806</v>
+        <v>4.8887493240028057</v>
       </c>
       <c r="I20">
         <v>31.41949735370326</v>
@@ -2094,7 +2183,7 @@
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>48.31440352611482</v>
+        <v>48.314403526114823</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2103,46 +2192,46 @@
         <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.6503132618975714</v>
+        <v>0.65031326189757144</v>
       </c>
       <c r="O20">
-        <v>63.45639319755069</v>
+        <v>63.456393197550689</v>
       </c>
       <c r="P20">
-        <v>15.14198967143587</v>
+        <v>15.141989671435869</v>
       </c>
       <c r="Q20">
-        <v>1.432881291131873</v>
+        <v>1.4328812911318729</v>
       </c>
       <c r="R20">
-        <v>26.6177298154023</v>
+        <v>26.617729815402299</v>
       </c>
       <c r="S20">
         <v>4.190756602961895</v>
       </c>
       <c r="T20">
-        <v>7.426898838817457</v>
+        <v>7.4268988388174568</v>
       </c>
       <c r="U20">
-        <v>2.005108387861591</v>
+        <v>2.0051083878615912</v>
       </c>
       <c r="V20">
-        <v>21.61702507799255</v>
+        <v>21.617025077992551</v>
       </c>
       <c r="W20">
-        <v>58.25892106563941</v>
+        <v>58.258921065639413</v>
       </c>
       <c r="X20">
-        <v>89.67841841934268</v>
+        <v>89.678418419342677</v>
       </c>
       <c r="Y20">
-        <v>41.36401489322785</v>
+        <v>41.364014893227854</v>
       </c>
       <c r="Z20">
         <v>1.408444543307076</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>71.46003743168448</v>
+        <v>71.460037431684484</v>
       </c>
       <c r="H21">
         <v>12.07677479228961</v>
       </c>
       <c r="I21">
-        <v>59.38326263939487</v>
+        <v>59.383262639394871</v>
       </c>
       <c r="J21">
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>70.73779209908201</v>
+        <v>70.737792099082014</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2183,46 +2272,46 @@
         <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.8394842541341562</v>
+        <v>0.83948425413415617</v>
       </c>
       <c r="O21">
-        <v>95.03519300780607</v>
+        <v>95.035193007806072</v>
       </c>
       <c r="P21">
         <v>24.29740090872405</v>
       </c>
       <c r="Q21">
-        <v>1.363877889576311</v>
+        <v>1.3638778895763111</v>
       </c>
       <c r="R21">
-        <v>37.59910422550193</v>
+        <v>37.599104225501932</v>
       </c>
       <c r="S21">
-        <v>3.911331642623694</v>
+        <v>3.9113316426236939</v>
       </c>
       <c r="T21">
-        <v>5.917145815893493</v>
+        <v>5.9171458158934929</v>
       </c>
       <c r="U21">
         <v>1.777854206942286</v>
       </c>
       <c r="V21">
-        <v>37.91251776862823</v>
+        <v>37.912517768628227</v>
       </c>
       <c r="W21">
-        <v>51.45983822312307</v>
+        <v>51.459838223123072</v>
       </c>
       <c r="X21">
         <v>110.8431008625179</v>
       </c>
       <c r="Y21">
-        <v>40.10530876343593</v>
+        <v>40.105308763435929</v>
       </c>
       <c r="Z21">
         <v>1.283117866681009</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>71.55184404197824</v>
+        <v>71.551844041978242</v>
       </c>
       <c r="H22">
-        <v>7.773714172121</v>
+        <v>7.7737141721210001</v>
       </c>
       <c r="I22">
-        <v>63.77812986985724</v>
+        <v>63.778129869857239</v>
       </c>
       <c r="J22">
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>66.18570054069485</v>
+        <v>66.185700540694853</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2263,46 +2352,46 @@
         <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.9636240056210132</v>
+        <v>0.96362400562101325</v>
       </c>
       <c r="O22">
-        <v>80.21936836640359</v>
+        <v>80.219368366403586</v>
       </c>
       <c r="P22">
-        <v>14.03366782570873</v>
+        <v>14.033667825708729</v>
       </c>
       <c r="Q22">
         <v>1.743305699246458</v>
       </c>
       <c r="R22">
-        <v>41.72072743880519</v>
+        <v>41.720727438805191</v>
       </c>
       <c r="S22">
         <v>5.716208290141167</v>
       </c>
       <c r="T22">
-        <v>9.204331733547113</v>
+        <v>9.2043317335471126</v>
       </c>
       <c r="U22">
         <v>2.219674213847286</v>
       </c>
       <c r="V22">
-        <v>46.52301697618105</v>
+        <v>46.523016976181047</v>
       </c>
       <c r="W22">
-        <v>64.29026686760697</v>
+        <v>64.290266867606974</v>
       </c>
       <c r="X22">
-        <v>128.0683967374642</v>
+        <v>128.06839673746421</v>
       </c>
       <c r="Y22">
-        <v>61.88269619676936</v>
+        <v>61.882696196769359</v>
       </c>
       <c r="Z22">
-        <v>1.038905393895286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.0389053938952859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2411,19 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>68.17253424959867</v>
+        <v>68.172534249598669</v>
       </c>
       <c r="H23">
-        <v>4.753765674970399</v>
+        <v>4.7537656749703991</v>
       </c>
       <c r="I23">
-        <v>63.41876857462827</v>
+        <v>63.418768574628267</v>
       </c>
       <c r="J23">
         <v>0.2</v>
       </c>
       <c r="K23">
-        <v>63.41876857462827</v>
+        <v>63.418768574628267</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2346,16 +2435,16 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>68.17253424959867</v>
+        <v>68.172534249598669</v>
       </c>
       <c r="P23">
-        <v>4.753765674970399</v>
+        <v>4.7537656749703991</v>
       </c>
       <c r="Q23">
-        <v>2.6631046824761</v>
+        <v>2.6631046824761002</v>
       </c>
       <c r="R23">
-        <v>50.75899294622045</v>
+        <v>50.758992946220452</v>
       </c>
       <c r="S23">
         <v>14.34074350962265</v>
@@ -2364,25 +2453,25 @@
         <v>14.34074350962265</v>
       </c>
       <c r="U23">
-        <v>2.6631046824761</v>
+        <v>2.6631046824761002</v>
       </c>
       <c r="V23">
-        <v>50.75899294622045</v>
+        <v>50.758992946220452</v>
       </c>
       <c r="W23">
-        <v>54.32610521798608</v>
+        <v>54.326105217986083</v>
       </c>
       <c r="X23">
         <v>117.7448737926144</v>
       </c>
       <c r="Y23">
-        <v>54.32610521798608</v>
+        <v>54.326105217986083</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>61.26163689324125</v>
+        <v>61.261636893241253</v>
       </c>
       <c r="H24">
-        <v>10.31832738991331</v>
+        <v>10.318327389913311</v>
       </c>
       <c r="I24">
-        <v>50.94330950332794</v>
+        <v>50.943309503327939</v>
       </c>
       <c r="J24">
         <v>0.2</v>
       </c>
       <c r="K24">
-        <v>50.94330950332794</v>
+        <v>50.943309503327939</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2426,43 +2515,43 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>61.26163689324125</v>
+        <v>61.261636893241253</v>
       </c>
       <c r="P24">
-        <v>10.31832738991331</v>
+        <v>10.318327389913311</v>
       </c>
       <c r="Q24">
         <v>1.781232149175636</v>
       </c>
       <c r="R24">
-        <v>32.56397303069483</v>
+        <v>32.563973030694832</v>
       </c>
       <c r="S24">
-        <v>5.937167389467367</v>
+        <v>5.9371673894673673</v>
       </c>
       <c r="T24">
-        <v>5.937167389467367</v>
+        <v>5.9371673894673673</v>
       </c>
       <c r="U24">
         <v>1.781232149175636</v>
       </c>
       <c r="V24">
-        <v>32.56397303069483</v>
+        <v>32.563973030694832</v>
       </c>
       <c r="W24">
-        <v>44.6338448466732</v>
+        <v>44.633844846673199</v>
       </c>
       <c r="X24">
-        <v>95.57715435000114</v>
+        <v>95.577154350001138</v>
       </c>
       <c r="Y24">
-        <v>44.6338448466732</v>
+        <v>44.633844846673199</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.9628238514484</v>
+        <v>28.962823851448402</v>
       </c>
       <c r="H25">
         <v>5.272444110989233</v>
       </c>
       <c r="I25">
-        <v>23.69037974045917</v>
+        <v>23.690379740459171</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>23.69037974045917</v>
+        <v>23.690379740459171</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2506,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>28.9628238514484</v>
+        <v>28.962823851448402</v>
       </c>
       <c r="P25">
         <v>5.272444110989233</v>
@@ -2515,34 +2604,34 @@
         <v>1.703519038228726</v>
       </c>
       <c r="R25">
-        <v>14.70867081939208</v>
+        <v>14.708670819392079</v>
       </c>
       <c r="S25">
-        <v>5.493244355323153</v>
+        <v>5.4932443553231529</v>
       </c>
       <c r="T25">
-        <v>5.493244355323153</v>
+        <v>5.4932443553231529</v>
       </c>
       <c r="U25">
         <v>1.703519038228726</v>
       </c>
       <c r="V25">
-        <v>14.70867081939208</v>
+        <v>14.708670819392079</v>
       </c>
       <c r="W25">
-        <v>45.41375642666863</v>
+        <v>45.413756426668627</v>
       </c>
       <c r="X25">
-        <v>69.10413616712779</v>
+        <v>69.104136167127791</v>
       </c>
       <c r="Y25">
-        <v>45.41375642666863</v>
+        <v>45.413756426668627</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,13 +2651,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>82.65062817373848</v>
+        <v>82.650628173738482</v>
       </c>
       <c r="H26">
-        <v>9.027182169119587</v>
+        <v>9.0271821691195875</v>
       </c>
       <c r="I26">
-        <v>73.6234460046189</v>
+        <v>73.623446004618899</v>
       </c>
       <c r="J26">
         <v>0.2</v>
@@ -2583,7 +2672,7 @@
         <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.977406328011343</v>
+        <v>0.97740632801134297</v>
       </c>
       <c r="O26">
         <v>93.75118516602798</v>
@@ -2595,34 +2684,34 @@
         <v>1.626889001047167</v>
       </c>
       <c r="R26">
-        <v>45.34848686535013</v>
+        <v>45.348486865350132</v>
       </c>
       <c r="S26">
-        <v>5.088021242491894</v>
+        <v>5.0880212424918936</v>
       </c>
       <c r="T26">
-        <v>9.155750557075478</v>
+        <v>9.1557505570754785</v>
       </c>
       <c r="U26">
-        <v>2.214382158062093</v>
+        <v>2.2143821580620928</v>
       </c>
       <c r="V26">
-        <v>53.63381487174422</v>
+        <v>53.633814871744221</v>
       </c>
       <c r="W26">
-        <v>85.43828291207294</v>
+        <v>85.438282912072935</v>
       </c>
       <c r="X26">
-        <v>159.0617289166918</v>
+        <v>159.06172891669181</v>
       </c>
       <c r="Y26">
-        <v>83.73640730309523</v>
+        <v>83.736407303095234</v>
       </c>
       <c r="Z26">
         <v>1.020324201429105</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>50.3149041840672</v>
+        <v>50.314904184067203</v>
       </c>
       <c r="H27">
-        <v>5.948326079052002</v>
+        <v>5.9483260790520021</v>
       </c>
       <c r="I27">
-        <v>44.36657810501519</v>
+        <v>44.366578105015194</v>
       </c>
       <c r="J27">
         <v>0.2</v>
       </c>
       <c r="K27">
-        <v>57.55150906294831</v>
+        <v>57.551509062948313</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2663,46 +2752,46 @@
         <v>0.2</v>
       </c>
       <c r="N27">
-        <v>0.7709020810642552</v>
+        <v>0.77090208106425517</v>
       </c>
       <c r="O27">
-        <v>67.96817041481769</v>
+        <v>67.968170414817692</v>
       </c>
       <c r="P27">
-        <v>10.41666135186938</v>
+        <v>10.416661351869379</v>
       </c>
       <c r="Q27">
-        <v>1.875632936162802</v>
+        <v>1.8756329361628019</v>
       </c>
       <c r="R27">
-        <v>38.01367594652798</v>
+        <v>38.013675946527982</v>
       </c>
       <c r="S27">
         <v>6.524947688984831</v>
       </c>
       <c r="T27">
-        <v>8.458666104613753</v>
+        <v>8.4586661046137532</v>
       </c>
       <c r="U27">
         <v>2.135191490337339</v>
       </c>
       <c r="V27">
-        <v>31.66576287927169</v>
+        <v>31.665762879271689</v>
       </c>
       <c r="W27">
-        <v>58.74920598334108</v>
+        <v>58.749205983341078</v>
       </c>
       <c r="X27">
-        <v>103.1157840883563</v>
+        <v>103.11578408835631</v>
       </c>
       <c r="Y27">
-        <v>45.56427502540797</v>
+        <v>45.564275025407973</v>
       </c>
       <c r="Z27">
         <v>1.289369927439443</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2811,19 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>49.31033300985354</v>
+        <v>49.310333009853537</v>
       </c>
       <c r="H28">
-        <v>8.954601305299811</v>
+        <v>8.9546013052998106</v>
       </c>
       <c r="I28">
-        <v>40.35573170455373</v>
+        <v>40.355731704553733</v>
       </c>
       <c r="J28">
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>40.35573170455373</v>
+        <v>40.355731704553733</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2746,10 +2835,10 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>49.31033300985354</v>
+        <v>49.310333009853537</v>
       </c>
       <c r="P28">
-        <v>8.954601305299811</v>
+        <v>8.9546013052998106</v>
       </c>
       <c r="Q28">
         <v>1.705966141106835</v>
@@ -2758,10 +2847,10 @@
         <v>25.07948507060118</v>
       </c>
       <c r="S28">
-        <v>5.506703350451689</v>
+        <v>5.5067033504516889</v>
       </c>
       <c r="T28">
-        <v>5.506703350451689</v>
+        <v>5.5067033504516889</v>
       </c>
       <c r="U28">
         <v>1.705966141106835</v>
@@ -2770,19 +2859,19 @@
         <v>25.07948507060118</v>
       </c>
       <c r="W28">
-        <v>50.99825879281286</v>
+        <v>50.998258792812862</v>
       </c>
       <c r="X28">
-        <v>91.35399049736658</v>
+        <v>91.353990497366581</v>
       </c>
       <c r="Y28">
-        <v>50.99825879281286</v>
+        <v>50.998258792812862</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,10 +2891,10 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>48.9126665486487</v>
+        <v>48.912666548648701</v>
       </c>
       <c r="H29">
-        <v>9.951842353798067</v>
+        <v>9.9518423537980674</v>
       </c>
       <c r="I29">
         <v>38.96082419485063</v>
@@ -2826,43 +2915,43 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>48.9126665486487</v>
+        <v>48.912666548648701</v>
       </c>
       <c r="P29">
-        <v>9.951842353798067</v>
+        <v>9.9518423537980674</v>
       </c>
       <c r="Q29">
         <v>1.592278697347143</v>
       </c>
       <c r="R29">
-        <v>23.11471761554092</v>
+        <v>23.114717615540918</v>
       </c>
       <c r="S29">
-        <v>4.914935828940401</v>
+        <v>4.9149358289404006</v>
       </c>
       <c r="T29">
-        <v>4.914935828940401</v>
+        <v>4.9149358289404006</v>
       </c>
       <c r="U29">
         <v>1.592278697347143</v>
       </c>
       <c r="V29">
-        <v>23.11471761554092</v>
+        <v>23.114717615540918</v>
       </c>
       <c r="W29">
-        <v>57.63560586993923</v>
+        <v>57.635605869939234</v>
       </c>
       <c r="X29">
-        <v>96.59643006478986</v>
+        <v>96.596430064789857</v>
       </c>
       <c r="Y29">
-        <v>57.63560586993923</v>
+        <v>57.635605869939234</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2885,16 +2974,16 @@
         <v>29.30011089370737</v>
       </c>
       <c r="H30">
-        <v>6.518890776266542</v>
+        <v>6.5188907762665416</v>
       </c>
       <c r="I30">
-        <v>22.78122011744083</v>
+        <v>22.781220117440832</v>
       </c>
       <c r="J30">
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>37.63500532709823</v>
+        <v>37.635005327098227</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2903,46 +2992,46 @@
         <v>0.2</v>
       </c>
       <c r="N30">
-        <v>0.605319965267488</v>
+        <v>0.60531996526748799</v>
       </c>
       <c r="O30">
-        <v>62.86458950340631</v>
+        <v>62.864589503406307</v>
       </c>
       <c r="P30">
         <v>25.22958417630808</v>
       </c>
       <c r="Q30">
-        <v>0.9129657590148139</v>
+        <v>0.91296575901481392</v>
       </c>
       <c r="R30">
-        <v>14.60125885994698</v>
+        <v>14.601258859946981</v>
       </c>
       <c r="S30">
         <v>2.491701371853742</v>
       </c>
       <c r="T30">
-        <v>4.494646696701973</v>
+        <v>4.4946466967019729</v>
       </c>
       <c r="U30">
-        <v>1.502887065658082</v>
+        <v>1.5028870656580819</v>
       </c>
       <c r="V30">
-        <v>12.98406348735207</v>
+        <v>12.984063487352071</v>
       </c>
       <c r="W30">
-        <v>77.46251663269187</v>
+        <v>77.462516632691873</v>
       </c>
       <c r="X30">
         <v>100.2437367501327</v>
       </c>
       <c r="Y30">
-        <v>62.60873142303446</v>
+        <v>62.608731423034463</v>
       </c>
       <c r="Z30">
         <v>1.237247822660603</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>58.9906224336552</v>
+        <v>58.990622433655197</v>
       </c>
       <c r="H31">
-        <v>8.860718219454522</v>
+        <v>8.8607182194545224</v>
       </c>
       <c r="I31">
-        <v>50.12990421420068</v>
+        <v>50.129904214200678</v>
       </c>
       <c r="J31">
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>50.12990421420068</v>
+        <v>50.129904214200678</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2986,43 +3075,86 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>58.9906224336552</v>
+        <v>58.990622433655197</v>
       </c>
       <c r="P31">
-        <v>8.860718219454522</v>
+        <v>8.8607182194545224</v>
       </c>
       <c r="Q31">
-        <v>1.895750664995277</v>
+        <v>1.8957506649952769</v>
       </c>
       <c r="R31">
-        <v>33.332191757334</v>
+        <v>33.332191757334002</v>
       </c>
       <c r="S31">
-        <v>6.657544114667348</v>
+        <v>6.6575441146673482</v>
       </c>
       <c r="T31">
-        <v>6.657544114667348</v>
+        <v>6.6575441146673482</v>
       </c>
       <c r="U31">
-        <v>1.895750664995277</v>
+        <v>1.8957506649952769</v>
       </c>
       <c r="V31">
-        <v>33.332191757334</v>
+        <v>33.332191757334002</v>
       </c>
       <c r="W31">
-        <v>56.16679397932498</v>
+        <v>56.166793979324979</v>
       </c>
       <c r="X31">
         <v>106.2966981935257</v>
       </c>
       <c r="Y31">
-        <v>56.16679397932498</v>
+        <v>56.166793979324979</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.19666666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.92628707957336853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0791758710559047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.60531996526748799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.408444543307076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>